--- a/other/sticker farmasi.xlsx
+++ b/other/sticker farmasi.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="74">
   <si>
     <t>A</t>
   </si>
@@ -134,7 +134,7 @@
     <t>PUSKESMAS BERAKIT</t>
   </si>
   <si>
-    <t>DAFTAR EMERGENCY KIT R.TINDAKAN</t>
+    <t>DAFTAR EMERGENCY KIT POLINDES BERAKIT</t>
   </si>
   <si>
     <t>NO.</t>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>O2 Nasal Canul</t>
+  </si>
+  <si>
+    <t>DAFTAR EMERGENCY KIT PUSTU PENGUDANG</t>
+  </si>
+  <si>
+    <t>DAFTAR EMERGENCY KIT POLINDES PENGUDANG</t>
   </si>
   <si>
     <t>2Ampul</t>
@@ -244,12 +250,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,7 +344,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,44 +382,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,8 +419,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,15 +444,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,37 +458,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,8 +471,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,7 +549,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,19 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,55 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,25 +627,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +681,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,42 +723,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -744,25 +737,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -809,6 +793,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -839,17 +832,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,35 +872,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,148 +932,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,31 +1114,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1170,8 +1148,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1203,19 +1181,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2298,6 +2276,84 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>206374</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1073150" cy="1073150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="524510" y="3912870"/>
+          <a:ext cx="1073150" cy="1073150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>206374</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1073150" cy="1073150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="524510" y="7465695"/>
+          <a:ext cx="1073150" cy="1073150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5010,10 +5066,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5452,15 +5508,827 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
+    <row r="20" ht="15" spans="1:14">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" ht="15" spans="1:14">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" ht="15" spans="1:14">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="16">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="16">
+        <v>1</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" ht="15" spans="1:14">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="16">
+        <v>2</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="19">
+        <v>1</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" ht="15" spans="1:14">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="16">
+        <v>3</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="16">
+        <v>1</v>
+      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" ht="15" spans="1:14">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="16">
+        <v>4</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="16">
+        <v>1</v>
+      </c>
+      <c r="L25" s="18"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" ht="15" spans="1:14">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="16">
+        <v>5</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="16">
+        <v>1</v>
+      </c>
+      <c r="L26" s="18"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" ht="15" spans="1:14">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="16">
+        <v>6</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="16">
+        <v>1</v>
+      </c>
+      <c r="L27" s="18"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" ht="15" spans="1:14">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="16">
+        <v>7</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="16">
+        <v>1</v>
+      </c>
+      <c r="L28" s="18"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" ht="15" spans="1:14">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="16">
+        <v>8</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="16">
+        <v>1</v>
+      </c>
+      <c r="L29" s="18"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" ht="15" spans="1:14">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="16">
+        <v>9</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="16">
+        <v>2</v>
+      </c>
+      <c r="L30" s="18"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" ht="26.25" spans="1:14">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="16">
+        <v>10</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="16">
+        <v>1</v>
+      </c>
+      <c r="L31" s="18"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" ht="15" spans="1:14">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="16">
+        <v>11</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="16">
+        <v>1</v>
+      </c>
+      <c r="L32" s="18"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" ht="15" spans="1:14">
+      <c r="A33" s="9"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="16">
+        <v>12</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="16">
+        <v>1</v>
+      </c>
+      <c r="L33" s="18"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" ht="15" spans="1:14">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="16">
+        <v>13</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="16">
+        <v>1</v>
+      </c>
+      <c r="L34" s="18"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" ht="15" spans="1:14">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="16">
+        <v>14</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="16">
+        <v>1</v>
+      </c>
+      <c r="L35" s="18"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="21"/>
+    </row>
+    <row r="38" ht="15" spans="1:14">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="21"/>
+    </row>
+    <row r="39" ht="15" spans="1:14">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" ht="15" spans="1:14">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="16">
+        <v>1</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" s="16">
+        <v>1</v>
+      </c>
+      <c r="L40" s="18"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" ht="15" spans="1:14">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="16">
+        <v>2</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" s="19">
+        <v>1</v>
+      </c>
+      <c r="L41" s="20"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" ht="15" spans="1:14">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="16">
+        <v>3</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="16">
+        <v>1</v>
+      </c>
+      <c r="L42" s="18"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" ht="15" spans="1:14">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="16">
+        <v>4</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="16">
+        <v>1</v>
+      </c>
+      <c r="L43" s="18"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" ht="15" spans="1:14">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="16">
+        <v>5</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" s="16">
+        <v>1</v>
+      </c>
+      <c r="L44" s="18"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" ht="15" spans="1:14">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="16">
+        <v>6</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="16">
+        <v>1</v>
+      </c>
+      <c r="L45" s="18"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" ht="15" spans="1:14">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="16">
+        <v>7</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="16">
+        <v>1</v>
+      </c>
+      <c r="L46" s="18"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" ht="15" spans="1:14">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="16">
+        <v>8</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="16">
+        <v>1</v>
+      </c>
+      <c r="L47" s="18"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" ht="15" spans="1:14">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="16">
+        <v>9</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="16">
+        <v>2</v>
+      </c>
+      <c r="L48" s="18"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" ht="17" customHeight="1" spans="1:14">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="16">
+        <v>10</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="16">
+        <v>1</v>
+      </c>
+      <c r="L49" s="18"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" ht="15" spans="1:14">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="16">
+        <v>11</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="16">
+        <v>1</v>
+      </c>
+      <c r="L50" s="18"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" ht="15" spans="1:14">
+      <c r="A51" s="9"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="16">
+        <v>12</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="16">
+        <v>1</v>
+      </c>
+      <c r="L51" s="18"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" ht="15" spans="1:14">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="16">
+        <v>13</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="16">
+        <v>1</v>
+      </c>
+      <c r="L52" s="18"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" ht="15" spans="1:14">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="16">
+        <v>14</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="16">
+        <v>1</v>
+      </c>
+      <c r="L53" s="18"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="13"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="C52:E52"/>
     <mergeCell ref="C13:E14"/>
     <mergeCell ref="C3:E10"/>
+    <mergeCell ref="C22:E29"/>
+    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="C40:E47"/>
+    <mergeCell ref="C50:E51"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.65" bottom="0.65" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5485,7 +6353,7 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5493,7 +6361,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5501,15 +6369,15 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5517,7 +6385,7 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5525,7 +6393,7 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5533,7 +6401,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5541,7 +6409,7 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5549,7 +6417,7 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5557,7 +6425,7 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5565,15 +6433,15 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5581,23 +6449,23 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
